--- a/notebooks/evaluation/main_table/tables/tsp50.xlsx
+++ b/notebooks/evaluation/main_table/tables/tsp50.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F141"/>
+  <dimension ref="A1:F146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2640,7 +2640,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>am-tsp50-sm-xl</t>
+          <t>am-critic-tsp50</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2650,19 +2650,19 @@
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="n">
-        <v>0.5399082321673632</v>
+        <v>2.216991037130356</v>
       </c>
       <c r="E86" t="n">
-        <v>5.72739315032959</v>
+        <v>5.826795101165771</v>
       </c>
       <c r="F86" t="n">
-        <v>936.9609985351562</v>
+        <v>633.2682495117188</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>am-tsp50-sm-xl</t>
+          <t>am-critic-tsp50</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2672,95 +2672,95 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>num_augment_2_</t>
+          <t>num_augment_1280_</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0.3216448705643415</v>
+        <v>0.1838001655414701</v>
       </c>
       <c r="E87" t="n">
-        <v>5.714656829833984</v>
+        <v>5.706641674041748</v>
       </c>
       <c r="F87" t="n">
-        <v>1465.525268554688</v>
+        <v>552389.875</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>am-tsp50-sm-xl</t>
+          <t>am-critic-tsp50</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>augment</t>
+          <t>sampling</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>num_augment_4_</t>
+          <t>samples_1280_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0.1842494588345289</v>
+        <v>0.7154874503612518</v>
       </c>
       <c r="E88" t="n">
-        <v>5.706680774688721</v>
+        <v>5.737546443939209</v>
       </c>
       <c r="F88" t="n">
-        <v>2853.130126953125</v>
+        <v>564203.0625</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>am-tsp50-sm-xl</t>
+          <t>am-critic-tsp50</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>augment</t>
+          <t>greedy_multistart</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>num_augment_8_</t>
+          <t>num_starts_50_</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0.08205192280001938</v>
+        <v>1.806754805147648</v>
       </c>
       <c r="E89" t="n">
-        <v>5.700771331787109</v>
+        <v>5.802003860473633</v>
       </c>
       <c r="F89" t="n">
-        <v>5676.5419921875</v>
+        <v>2207.837158203125</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>am-tsp50-sm-xl</t>
+          <t>am-critic-tsp50</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>augment</t>
+          <t>greedy_multistart_augment</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>num_augment_16_</t>
+          <t>num_starts_50_num_augment_16_</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0.06212510052137077</v>
+        <v>0.4062148742377758</v>
       </c>
       <c r="E90" t="n">
-        <v>5.699621677398682</v>
+        <v>5.71951150894165</v>
       </c>
       <c r="F90" t="n">
-        <v>11347.6669921875</v>
+        <v>34900.14453125</v>
       </c>
     </row>
     <row r="91">
@@ -2771,22 +2771,18 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>augment</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>num_augment_32_</t>
-        </is>
-      </c>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
       <c r="D91" t="n">
-        <v>0.03710188320837915</v>
+        <v>0.5399082321673632</v>
       </c>
       <c r="E91" t="n">
-        <v>5.698177337646484</v>
+        <v>5.72739315032959</v>
       </c>
       <c r="F91" t="n">
-        <v>22729.544921875</v>
+        <v>936.9609985351562</v>
       </c>
     </row>
     <row r="92">
@@ -2802,17 +2798,17 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>num_augment_64_</t>
+          <t>num_augment_2_</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0.02605706686154008</v>
+        <v>0.3216448705643415</v>
       </c>
       <c r="E92" t="n">
-        <v>5.697535037994385</v>
+        <v>5.714656829833984</v>
       </c>
       <c r="F92" t="n">
-        <v>45467.19921875</v>
+        <v>1465.525268554688</v>
       </c>
     </row>
     <row r="93">
@@ -2828,17 +2824,17 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>num_augment_128_</t>
+          <t>num_augment_4_</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0.01898950285976753</v>
+        <v>0.1842494588345289</v>
       </c>
       <c r="E93" t="n">
-        <v>5.697127342224121</v>
+        <v>5.706680774688721</v>
       </c>
       <c r="F93" t="n">
-        <v>90954.8125</v>
+        <v>2853.130126953125</v>
       </c>
     </row>
     <row r="94">
@@ -2854,17 +2850,17 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>num_augment_256_</t>
+          <t>num_augment_8_</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0.01496899931225926</v>
+        <v>0.08205192280001938</v>
       </c>
       <c r="E94" t="n">
-        <v>5.696892738342285</v>
+        <v>5.700771331787109</v>
       </c>
       <c r="F94" t="n">
-        <v>181372.890625</v>
+        <v>5676.5419921875</v>
       </c>
     </row>
     <row r="95">
@@ -2880,17 +2876,17 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>num_augment_512_</t>
+          <t>num_augment_16_</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0.01233300863532349</v>
+        <v>0.06212510052137077</v>
       </c>
       <c r="E95" t="n">
-        <v>5.696739673614502</v>
+        <v>5.699621677398682</v>
       </c>
       <c r="F95" t="n">
-        <v>362423.59375</v>
+        <v>11347.6669921875</v>
       </c>
     </row>
     <row r="96">
@@ -2906,17 +2902,17 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>num_augment_1280_</t>
+          <t>num_augment_32_</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.01083616880350746</v>
+        <v>0.03710188320837915</v>
       </c>
       <c r="E96" t="n">
-        <v>5.696653842926025</v>
+        <v>5.698177337646484</v>
       </c>
       <c r="F96" t="n">
-        <v>939012.4375</v>
+        <v>22729.544921875</v>
       </c>
     </row>
     <row r="97">
@@ -2927,22 +2923,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>augment_dihedral_8</t>
+          <t>augment</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>num_augment_8_force_dihedral_True_</t>
+          <t>num_augment_64_</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0.103001669049263</v>
+        <v>0.02605706686154008</v>
       </c>
       <c r="E97" t="n">
-        <v>5.701981067657471</v>
+        <v>5.697535037994385</v>
       </c>
       <c r="F97" t="n">
-        <v>5688.40625</v>
+        <v>45467.19921875</v>
       </c>
     </row>
     <row r="98">
@@ -2953,22 +2949,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>sampling</t>
+          <t>augment</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>samples_2_softmax_temp_1.0_</t>
+          <t>num_augment_128_</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0.4758076276630163</v>
+        <v>0.01898950285976753</v>
       </c>
       <c r="E98" t="n">
-        <v>5.723628997802734</v>
+        <v>5.697127342224121</v>
       </c>
       <c r="F98" t="n">
-        <v>1489.28515625</v>
+        <v>90954.8125</v>
       </c>
     </row>
     <row r="99">
@@ -2979,22 +2975,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>sampling</t>
+          <t>augment</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>samples_4_softmax_temp_1.0_</t>
+          <t>num_augment_256_</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>0.4004948772490025</v>
+        <v>0.01496899931225926</v>
       </c>
       <c r="E99" t="n">
-        <v>5.719240665435791</v>
+        <v>5.696892738342285</v>
       </c>
       <c r="F99" t="n">
-        <v>2887.9638671875</v>
+        <v>181372.890625</v>
       </c>
     </row>
     <row r="100">
@@ -3005,22 +3001,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>sampling</t>
+          <t>augment</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>samples_8_softmax_temp_1.0_</t>
+          <t>num_augment_512_</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0.3474357537925243</v>
+        <v>0.01233300863532349</v>
       </c>
       <c r="E100" t="n">
-        <v>5.71614933013916</v>
+        <v>5.696739673614502</v>
       </c>
       <c r="F100" t="n">
-        <v>5736.1962890625</v>
+        <v>362423.59375</v>
       </c>
     </row>
     <row r="101">
@@ -3031,22 +3027,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>sampling</t>
+          <t>augment</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>samples_16_softmax_temp_1.0_</t>
+          <t>num_augment_1280_</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0.3061926458030939</v>
+        <v>0.01083616880350746</v>
       </c>
       <c r="E101" t="n">
-        <v>5.713754653930664</v>
+        <v>5.696653842926025</v>
       </c>
       <c r="F101" t="n">
-        <v>11457.3349609375</v>
+        <v>939012.4375</v>
       </c>
     </row>
     <row r="102">
@@ -3057,22 +3053,22 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>sampling</t>
+          <t>augment_dihedral_8</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>samples_32_softmax_temp_1.0_</t>
+          <t>num_augment_8_force_dihedral_True_</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>0.2768668346107006</v>
+        <v>0.103001669049263</v>
       </c>
       <c r="E102" t="n">
-        <v>5.712050437927246</v>
+        <v>5.701981067657471</v>
       </c>
       <c r="F102" t="n">
-        <v>22917.810546875</v>
+        <v>5688.40625</v>
       </c>
     </row>
     <row r="103">
@@ -3088,17 +3084,17 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>samples_64_softmax_temp_1.0_</t>
+          <t>samples_2_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>0.2486830111593008</v>
+        <v>0.4758076276630163</v>
       </c>
       <c r="E103" t="n">
-        <v>5.710413455963135</v>
+        <v>5.723628997802734</v>
       </c>
       <c r="F103" t="n">
-        <v>45769.91015625</v>
+        <v>1489.28515625</v>
       </c>
     </row>
     <row r="104">
@@ -3114,17 +3110,17 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>samples_128_softmax_temp_1.0_</t>
+          <t>samples_4_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>0.2260850742459297</v>
+        <v>0.4004948772490025</v>
       </c>
       <c r="E104" t="n">
-        <v>5.709108829498291</v>
+        <v>5.719240665435791</v>
       </c>
       <c r="F104" t="n">
-        <v>91451.875</v>
+        <v>2887.9638671875</v>
       </c>
     </row>
     <row r="105">
@@ -3140,17 +3136,17 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>samples_256_softmax_temp_1.0_</t>
+          <t>samples_8_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0.2044964348897338</v>
+        <v>0.3474357537925243</v>
       </c>
       <c r="E105" t="n">
-        <v>5.707857608795166</v>
+        <v>5.71614933013916</v>
       </c>
       <c r="F105" t="n">
-        <v>182847.125</v>
+        <v>5736.1962890625</v>
       </c>
     </row>
     <row r="106">
@@ -3166,17 +3162,17 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>samples_512_softmax_temp_1.0_</t>
+          <t>samples_16_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0.1878417213447392</v>
+        <v>0.3061926458030939</v>
       </c>
       <c r="E106" t="n">
-        <v>5.706894397735596</v>
+        <v>5.713754653930664</v>
       </c>
       <c r="F106" t="n">
-        <v>365655.34375</v>
+        <v>11457.3349609375</v>
       </c>
     </row>
     <row r="107">
@@ -3192,17 +3188,17 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>samples_1280_softmax_temp_1.0_</t>
+          <t>samples_32_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>0.1664627809077501</v>
+        <v>0.2768668346107006</v>
       </c>
       <c r="E107" t="n">
-        <v>5.7056565284729</v>
+        <v>5.712050437927246</v>
       </c>
       <c r="F107" t="n">
-        <v>952572</v>
+        <v>22917.810546875</v>
       </c>
     </row>
     <row r="108">
@@ -3213,22 +3209,22 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>greedy_multistart</t>
+          <t>sampling</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>num_starts_50_</t>
+          <t>samples_64_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>0.4185433033853769</v>
+        <v>0.2486830111593008</v>
       </c>
       <c r="E108" t="n">
-        <v>5.720276355743408</v>
+        <v>5.710413455963135</v>
       </c>
       <c r="F108" t="n">
-        <v>2539.98583984375</v>
+        <v>45769.91015625</v>
       </c>
     </row>
     <row r="109">
@@ -3239,22 +3235,22 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>greedy_multistart_augment_dihedral_8</t>
+          <t>sampling</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>num_starts_50_num_augment_8_force_dihedral_True_</t>
+          <t>samples_128_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>0.06537160370498896</v>
+        <v>0.2260850742459297</v>
       </c>
       <c r="E109" t="n">
-        <v>5.69980525970459</v>
+        <v>5.709108829498291</v>
       </c>
       <c r="F109" t="n">
-        <v>20165.328125</v>
+        <v>91451.875</v>
       </c>
     </row>
     <row r="110">
@@ -3265,22 +3261,22 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>greedy_multistart_augment</t>
+          <t>sampling</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>num_starts_50_num_augment_2_</t>
+          <t>samples_256_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>0.2412735717371106</v>
+        <v>0.2044964348897338</v>
       </c>
       <c r="E110" t="n">
-        <v>5.709981441497803</v>
+        <v>5.707857608795166</v>
       </c>
       <c r="F110" t="n">
-        <v>5057.29443359375</v>
+        <v>182847.125</v>
       </c>
     </row>
     <row r="111">
@@ -3291,22 +3287,22 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>greedy_multistart_augment</t>
+          <t>sampling</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>num_starts_50_num_augment_4_</t>
+          <t>samples_512_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0.1284580561332405</v>
+        <v>0.1878417213447392</v>
       </c>
       <c r="E111" t="n">
-        <v>5.703446865081787</v>
+        <v>5.706894397735596</v>
       </c>
       <c r="F111" t="n">
-        <v>10115.5791015625</v>
+        <v>365655.34375</v>
       </c>
     </row>
     <row r="112">
@@ -3317,22 +3313,22 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>greedy_multistart_augment</t>
+          <t>sampling</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>num_starts_50_num_augment_8_</t>
+          <t>samples_1280_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>0.05136090912856162</v>
+        <v>0.1664627809077501</v>
       </c>
       <c r="E112" t="n">
-        <v>5.698998928070068</v>
+        <v>5.7056565284729</v>
       </c>
       <c r="F112" t="n">
-        <v>20192.552734375</v>
+        <v>952572</v>
       </c>
     </row>
     <row r="113">
@@ -3343,148 +3339,152 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>greedy_multistart_augment</t>
+          <t>greedy_multistart</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>num_starts_50_num_augment_16_</t>
+          <t>num_starts_50_</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>0.03536633739713579</v>
+        <v>0.4185433033853769</v>
       </c>
       <c r="E113" t="n">
-        <v>5.698071479797363</v>
+        <v>5.720276355743408</v>
       </c>
       <c r="F113" t="n">
-        <v>40262.734375</v>
+        <v>2539.98583984375</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>symnco-tsp50</t>
+          <t>am-tsp50-sm-xl</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>greedy</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr"/>
+          <t>greedy_multistart_augment_dihedral_8</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>num_starts_50_num_augment_8_force_dihedral_True_</t>
+        </is>
+      </c>
       <c r="D114" t="n">
-        <v>0.4725300706923008</v>
+        <v>0.06537160370498896</v>
       </c>
       <c r="E114" t="n">
-        <v>5.723450183868408</v>
+        <v>5.69980525970459</v>
       </c>
       <c r="F114" t="n">
-        <v>949.2357177734375</v>
+        <v>20165.328125</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>symnco-tsp50</t>
+          <t>am-tsp50-sm-xl</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>augment</t>
+          <t>greedy_multistart_augment</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>num_augment_2_</t>
+          <t>num_starts_50_num_augment_2_</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0.2652229042723775</v>
+        <v>0.2412735717371106</v>
       </c>
       <c r="E115" t="n">
-        <v>5.71136999130249</v>
+        <v>5.709981441497803</v>
       </c>
       <c r="F115" t="n">
-        <v>1479.05224609375</v>
+        <v>5057.29443359375</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>symnco-tsp50</t>
+          <t>am-tsp50-sm-xl</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>augment</t>
+          <t>greedy_multistart_augment</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>num_augment_4_</t>
+          <t>num_starts_50_num_augment_4_</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>0.1447226735763252</v>
+        <v>0.1284580561332405</v>
       </c>
       <c r="E116" t="n">
-        <v>5.704398632049561</v>
+        <v>5.703446865081787</v>
       </c>
       <c r="F116" t="n">
-        <v>2885.466552734375</v>
+        <v>10115.5791015625</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>symnco-tsp50</t>
+          <t>am-tsp50-sm-xl</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>augment</t>
+          <t>greedy_multistart_augment</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>num_augment_8_</t>
+          <t>num_starts_50_num_augment_8_</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0.06647580885328352</v>
+        <v>0.05136090912856162</v>
       </c>
       <c r="E117" t="n">
-        <v>5.699867725372314</v>
+        <v>5.698998928070068</v>
       </c>
       <c r="F117" t="n">
-        <v>5724.525390625</v>
+        <v>20192.552734375</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>symnco-tsp50</t>
+          <t>am-tsp50-sm-xl</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>augment</t>
+          <t>greedy_multistart_augment</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>num_augment_16_</t>
+          <t>num_starts_50_num_augment_16_</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>0.04942122031934559</v>
+        <v>0.03536633739713579</v>
       </c>
       <c r="E118" t="n">
-        <v>5.698883533477783</v>
+        <v>5.698071479797363</v>
       </c>
       <c r="F118" t="n">
-        <v>11448.787109375</v>
+        <v>40262.734375</v>
       </c>
     </row>
     <row r="119">
@@ -3495,22 +3495,18 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>augment</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>num_augment_32_</t>
-        </is>
-      </c>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr"/>
       <c r="D119" t="n">
-        <v>0.03168675466440618</v>
+        <v>0.4725300706923008</v>
       </c>
       <c r="E119" t="n">
-        <v>5.697861671447754</v>
+        <v>5.723450183868408</v>
       </c>
       <c r="F119" t="n">
-        <v>22946.986328125</v>
+        <v>949.2357177734375</v>
       </c>
     </row>
     <row r="120">
@@ -3526,17 +3522,17 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>num_augment_64_</t>
+          <t>num_augment_2_</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>0.02246629010187462</v>
+        <v>0.2652229042723775</v>
       </c>
       <c r="E120" t="n">
-        <v>5.697325706481934</v>
+        <v>5.71136999130249</v>
       </c>
       <c r="F120" t="n">
-        <v>45788.78125</v>
+        <v>1479.05224609375</v>
       </c>
     </row>
     <row r="121">
@@ -3552,17 +3548,17 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>num_augment_128_</t>
+          <t>num_augment_4_</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0.01739915896905586</v>
+        <v>0.1447226735763252</v>
       </c>
       <c r="E121" t="n">
-        <v>5.697033405303955</v>
+        <v>5.704398632049561</v>
       </c>
       <c r="F121" t="n">
-        <v>91531.6796875</v>
+        <v>2885.466552734375</v>
       </c>
     </row>
     <row r="122">
@@ -3578,17 +3574,17 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>num_augment_256_</t>
+          <t>num_augment_8_</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0.0142919467180036</v>
+        <v>0.06647580885328352</v>
       </c>
       <c r="E122" t="n">
-        <v>5.69685173034668</v>
+        <v>5.699867725372314</v>
       </c>
       <c r="F122" t="n">
-        <v>182983.015625</v>
+        <v>5724.525390625</v>
       </c>
     </row>
     <row r="123">
@@ -3604,17 +3600,17 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>num_augment_512_</t>
+          <t>num_augment_16_</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>0.01309464132646099</v>
+        <v>0.04942122031934559</v>
       </c>
       <c r="E123" t="n">
-        <v>5.696783542633057</v>
+        <v>5.698883533477783</v>
       </c>
       <c r="F123" t="n">
-        <v>365656.1875</v>
+        <v>11448.787109375</v>
       </c>
     </row>
     <row r="124">
@@ -3630,17 +3626,17 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>num_augment_1280_</t>
+          <t>num_augment_32_</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>0.01237524702446535</v>
+        <v>0.03168675466440618</v>
       </c>
       <c r="E124" t="n">
-        <v>5.696742057800293</v>
+        <v>5.697861671447754</v>
       </c>
       <c r="F124" t="n">
-        <v>946916.125</v>
+        <v>22946.986328125</v>
       </c>
     </row>
     <row r="125">
@@ -3651,22 +3647,22 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>augment_dihedral_8</t>
+          <t>augment</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>num_augment_8_force_dihedral_True_</t>
+          <t>num_augment_64_</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>0.07978268549777567</v>
+        <v>0.02246629010187462</v>
       </c>
       <c r="E125" t="n">
-        <v>5.700637340545654</v>
+        <v>5.697325706481934</v>
       </c>
       <c r="F125" t="n">
-        <v>5741.7216796875</v>
+        <v>45788.78125</v>
       </c>
     </row>
     <row r="126">
@@ -3677,22 +3673,22 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>sampling</t>
+          <t>augment</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>samples_2_softmax_temp_1.0_</t>
+          <t>num_augment_128_</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0.4138287156820297</v>
+        <v>0.01739915896905586</v>
       </c>
       <c r="E126" t="n">
-        <v>5.720003604888916</v>
+        <v>5.697033405303955</v>
       </c>
       <c r="F126" t="n">
-        <v>1503.9365234375</v>
+        <v>91531.6796875</v>
       </c>
     </row>
     <row r="127">
@@ -3703,22 +3699,22 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>sampling</t>
+          <t>augment</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>samples_4_softmax_temp_1.0_</t>
+          <t>num_augment_256_</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>0.348504981957376</v>
+        <v>0.0142919467180036</v>
       </c>
       <c r="E127" t="n">
-        <v>5.716207027435303</v>
+        <v>5.69685173034668</v>
       </c>
       <c r="F127" t="n">
-        <v>2911.743896484375</v>
+        <v>182983.015625</v>
       </c>
     </row>
     <row r="128">
@@ -3729,22 +3725,22 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>sampling</t>
+          <t>augment</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>samples_8_softmax_temp_1.0_</t>
+          <t>num_augment_512_</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>0.3025321522727609</v>
+        <v>0.01309464132646099</v>
       </c>
       <c r="E128" t="n">
-        <v>5.713539600372314</v>
+        <v>5.696783542633057</v>
       </c>
       <c r="F128" t="n">
-        <v>5790.46728515625</v>
+        <v>365656.1875</v>
       </c>
     </row>
     <row r="129">
@@ -3755,22 +3751,22 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>sampling</t>
+          <t>augment</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>samples_16_softmax_temp_1.0_</t>
+          <t>num_augment_1280_</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>0.2670640125870705</v>
+        <v>0.01237524702446535</v>
       </c>
       <c r="E129" t="n">
-        <v>5.711472511291504</v>
+        <v>5.696742057800293</v>
       </c>
       <c r="F129" t="n">
-        <v>11563.5966796875</v>
+        <v>946916.125</v>
       </c>
     </row>
     <row r="130">
@@ -3781,22 +3777,22 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>sampling</t>
+          <t>augment_dihedral_8</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>samples_32_softmax_temp_1.0_</t>
+          <t>num_augment_8_force_dihedral_True_</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0.2342805732041597</v>
+        <v>0.07978268549777567</v>
       </c>
       <c r="E130" t="n">
-        <v>5.70957612991333</v>
+        <v>5.700637340545654</v>
       </c>
       <c r="F130" t="n">
-        <v>23127.416015625</v>
+        <v>5741.7216796875</v>
       </c>
     </row>
     <row r="131">
@@ -3812,17 +3808,17 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>samples_64_softmax_temp_1.0_</t>
+          <t>samples_2_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>0.211971253156662</v>
+        <v>0.4138287156820297</v>
       </c>
       <c r="E131" t="n">
-        <v>5.708287239074707</v>
+        <v>5.720003604888916</v>
       </c>
       <c r="F131" t="n">
-        <v>46175.45703125</v>
+        <v>1503.9365234375</v>
       </c>
     </row>
     <row r="132">
@@ -3838,17 +3834,17 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>samples_128_softmax_temp_1.0_</t>
+          <t>samples_4_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>0.1937797758728266</v>
+        <v>0.348504981957376</v>
       </c>
       <c r="E132" t="n">
-        <v>5.707229614257812</v>
+        <v>5.716207027435303</v>
       </c>
       <c r="F132" t="n">
-        <v>92267.15625</v>
+        <v>2911.743896484375</v>
       </c>
     </row>
     <row r="133">
@@ -3864,17 +3860,17 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>samples_256_softmax_temp_1.0_</t>
+          <t>samples_8_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>0.1749164541251957</v>
+        <v>0.3025321522727609</v>
       </c>
       <c r="E133" t="n">
-        <v>5.706139087677002</v>
+        <v>5.713539600372314</v>
       </c>
       <c r="F133" t="n">
-        <v>184304.171875</v>
+        <v>5790.46728515625</v>
       </c>
     </row>
     <row r="134">
@@ -3890,17 +3886,17 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>samples_512_softmax_temp_1.0_</t>
+          <t>samples_16_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>0.1585595076903701</v>
+        <v>0.2670640125870705</v>
       </c>
       <c r="E134" t="n">
-        <v>5.705193042755127</v>
+        <v>5.711472511291504</v>
       </c>
       <c r="F134" t="n">
-        <v>368856.6875</v>
+        <v>11563.5966796875</v>
       </c>
     </row>
     <row r="135">
@@ -3916,17 +3912,17 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>samples_1280_softmax_temp_1.0_</t>
+          <t>samples_32_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>0.1414442784152925</v>
+        <v>0.2342805732041597</v>
       </c>
       <c r="E135" t="n">
-        <v>5.70419979095459</v>
+        <v>5.70957612991333</v>
       </c>
       <c r="F135" t="n">
-        <v>958245.8125</v>
+        <v>23127.416015625</v>
       </c>
     </row>
     <row r="136">
@@ -3937,22 +3933,22 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>greedy_multistart</t>
+          <t>sampling</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>num_starts_50_</t>
+          <t>samples_64_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>0.364444893784821</v>
+        <v>0.211971253156662</v>
       </c>
       <c r="E136" t="n">
-        <v>5.717116832733154</v>
+        <v>5.708287239074707</v>
       </c>
       <c r="F136" t="n">
-        <v>2538.946533203125</v>
+        <v>46175.45703125</v>
       </c>
     </row>
     <row r="137">
@@ -3963,22 +3959,22 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>greedy_multistart_augment_dihedral_8</t>
+          <t>sampling</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>num_starts_50_num_augment_8_force_dihedral_True_</t>
+          <t>samples_128_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>0.04759094153996557</v>
+        <v>0.1937797758728266</v>
       </c>
       <c r="E137" t="n">
-        <v>5.698774814605713</v>
+        <v>5.707229614257812</v>
       </c>
       <c r="F137" t="n">
-        <v>20176.341796875</v>
+        <v>92267.15625</v>
       </c>
     </row>
     <row r="138">
@@ -3989,22 +3985,22 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>greedy_multistart_augment</t>
+          <t>sampling</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>num_starts_50_num_augment_2_</t>
+          <t>samples_256_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>0.1860203687101603</v>
+        <v>0.1749164541251957</v>
       </c>
       <c r="E138" t="n">
-        <v>5.706779956817627</v>
+        <v>5.706139087677002</v>
       </c>
       <c r="F138" t="n">
-        <v>5065.0439453125</v>
+        <v>184304.171875</v>
       </c>
     </row>
     <row r="139">
@@ -4015,22 +4011,22 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>greedy_multistart_augment</t>
+          <t>sampling</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>num_starts_50_num_augment_4_</t>
+          <t>samples_512_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>0.09404749143868685</v>
+        <v>0.1585595076903701</v>
       </c>
       <c r="E139" t="n">
-        <v>5.701460838317871</v>
+        <v>5.705193042755127</v>
       </c>
       <c r="F139" t="n">
-        <v>10124.59765625</v>
+        <v>368856.6875</v>
       </c>
     </row>
     <row r="140">
@@ -4041,22 +4037,22 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>greedy_multistart_augment</t>
+          <t>sampling</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>num_starts_50_num_augment_8_</t>
+          <t>samples_1280_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>0.04145095008425415</v>
+        <v>0.1414442784152925</v>
       </c>
       <c r="E140" t="n">
-        <v>5.698422908782959</v>
+        <v>5.70419979095459</v>
       </c>
       <c r="F140" t="n">
-        <v>20167.87890625</v>
+        <v>958245.8125</v>
       </c>
     </row>
     <row r="141">
@@ -4067,21 +4063,151 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
+          <t>greedy_multistart</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>num_starts_50_</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>0.364444893784821</v>
+      </c>
+      <c r="E141" t="n">
+        <v>5.717116832733154</v>
+      </c>
+      <c r="F141" t="n">
+        <v>2538.946533203125</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>symnco-tsp50</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>greedy_multistart_augment_dihedral_8</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>num_starts_50_num_augment_8_force_dihedral_True_</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>0.04759094153996557</v>
+      </c>
+      <c r="E142" t="n">
+        <v>5.698774814605713</v>
+      </c>
+      <c r="F142" t="n">
+        <v>20176.341796875</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>symnco-tsp50</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
           <t>greedy_multistart_augment</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>num_starts_50_num_augment_2_</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>0.1860203687101603</v>
+      </c>
+      <c r="E143" t="n">
+        <v>5.706779956817627</v>
+      </c>
+      <c r="F143" t="n">
+        <v>5065.0439453125</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>symnco-tsp50</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>greedy_multistart_augment</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>num_starts_50_num_augment_4_</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>0.09404749143868685</v>
+      </c>
+      <c r="E144" t="n">
+        <v>5.701460838317871</v>
+      </c>
+      <c r="F144" t="n">
+        <v>10124.59765625</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>symnco-tsp50</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>greedy_multistart_augment</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>num_starts_50_num_augment_8_</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>0.04145095008425415</v>
+      </c>
+      <c r="E145" t="n">
+        <v>5.698422908782959</v>
+      </c>
+      <c r="F145" t="n">
+        <v>20167.87890625</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>symnco-tsp50</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>greedy_multistart_augment</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
         <is>
           <t>num_starts_50_num_augment_16_</t>
         </is>
       </c>
-      <c r="D141" t="n">
+      <c r="D146" t="n">
         <v>0.02524302108213305</v>
       </c>
-      <c r="E141" t="n">
+      <c r="E146" t="n">
         <v>5.697486877441406</v>
       </c>
-      <c r="F141" t="n">
+      <c r="F146" t="n">
         <v>40254.43359375</v>
       </c>
     </row>
